--- a/biology/Botanique/Anacardioideae/Anacardioideae.xlsx
+++ b/biology/Botanique/Anacardioideae/Anacardioideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anacardioideae sont l'une des deux sous-familles de plantes à fleurs de la famille des Anacardiaceae, comprenant une soixantaine de genres. Anacardium est le genre type.
 Les Spondiadoideae sont l'autre sous-famille des Anacardiaceae.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (16 avril 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (16 avril 2021) :
 Abrahamia Randrian. &amp; Lowry
 Actinocheita F. A. Barkley
 Amphipterygium Schiede ex Standl.
@@ -574,7 +588,7 @@
 Thyrsodium Salzm. ex Benth.
 Toxicodendron Mill.
 Trichoscypha Hook. fil.
-Selon l'INPN      (16 avril 2021)[1] (taxons recensés en France uniquement, outre-mer compris) :
+Selon l'INPN      (16 avril 2021) (taxons recensés en France uniquement, outre-mer compris) :
 tribu des Anacardieae DC., 1825
 genre Anacardium L., 1753
 genre Mangifera L., 1753
@@ -628,9 +642,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (16 avril 2021)[3], les noms de familles suivantes sont synonymes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (16 avril 2021), les noms de familles suivantes sont synonymes :
 Blepharocaryaceae Airy Shaw
 Comocladiaceae Martynov
 Julianaceae Hemsl.
